--- a/biology/Botanique/Vignoble_du_Blayais_et_du_Bourgeais/Vignoble_du_Blayais_et_du_Bourgeais.xlsx
+++ b/biology/Botanique/Vignoble_du_Blayais_et_du_Bourgeais/Vignoble_du_Blayais_et_du_Bourgeais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble de Blaye et de Bourg, appelé aussi vignoble du Blayais et du Bourgeais, est une région du vignoble de Bordeaux bordant la rive droite de la Gironde et s'étendant sur 5 000 hectares autour des villes de Blaye et de Bourg.
@@ -512,10 +524,12 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Blayais est avant tout calcaire. Autour de Blaye c'est la formation dite « calcaire de Blaye » (chargée en Miliolidae et Échinodermes) datant de l'Éocène moyen (peut-être le Lutétien) qui affleure, rapidement recouvert plus à l'est par le « calcaire de Plassac » (Éocène supérieur d'origine lacustre) sur les reliefs et des colluvions argileux wurmien et holocène sur les versants et les fonds. L'arrière-pays encore plus à l'est a des reliefs de « calcaire de Saint-Estèphe » gréseux à débris de fossiles (Échinodermes, bivalves, gastéropodes et Miliolidae ; de l'Éocène) avec des vallons remplis de colluvions sableux quaternaires.
-Le Bourgeais est un peu différent, avec sur le relief au-dessus de Bourg des lambeaux de calcaire à Astéries (des étoiles de mer) datant de l'Oligocène (Rupélien) appelé « calcaire de Bourg » localement, d'origine récifale (présence de polypiers, d'algues mélobésiées, de mollusques et de crabes Carpiliidae) avec des niveaux inférieurs marneux. Le coteau bordant la Dordogne (de Gauriac à Bourg) est couvert de limon ocre-jaune d'origine éolien dit « limon du Bourgeais », tandis que l'arrière-pays est lui couvert des sables et graviers dit « de Pugnac » datant de l'Éocène moyen et supérieur[2],[3].
+Le Bourgeais est un peu différent, avec sur le relief au-dessus de Bourg des lambeaux de calcaire à Astéries (des étoiles de mer) datant de l'Oligocène (Rupélien) appelé « calcaire de Bourg » localement, d'origine récifale (présence de polypiers, d'algues mélobésiées, de mollusques et de crabes Carpiliidae) avec des niveaux inférieurs marneux. Le coteau bordant la Dordogne (de Gauriac à Bourg) est couvert de limon ocre-jaune d'origine éolien dit « limon du Bourgeais », tandis que l'arrière-pays est lui couvert des sables et graviers dit « de Pugnac » datant de l'Éocène moyen et supérieur,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le vignoble regroupe quatre AOC :
 blaye ;
@@ -578,7 +594,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les vins rouges sont puissants et fruités. Ils accompagnent bien les viandes rouges ou les fromages, tels que :
 civet, petit gibier
